--- a/File/SAPDemo1.xlsx
+++ b/File/SAPDemo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatarzynaSzyja\Documents\UiPath\SapDemo\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400D91B-9B9B-4312-B0D0-859BEA6D4991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470241D-F191-49EE-A6E5-AD8CB1B78CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1200" windowWidth="17280" windowHeight="8964" xr2:uid="{55D227B8-F07C-495F-A9E8-60E6B4694494}"/>
   </bookViews>
@@ -145,13 +145,13 @@
     <t>You are not authorized to use transaction PFCG</t>
   </si>
   <si>
-    <t>TEST2_Test2</t>
-  </si>
-  <si>
-    <t>TEST3_Test3</t>
-  </si>
-  <si>
-    <t>1TEST1_Test1</t>
+    <t>1TEST_1TestK</t>
+  </si>
+  <si>
+    <t>2TEST_2TestK</t>
+  </si>
+  <si>
+    <t>3TEST_3TestK</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -853,21 +853,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C357B498D4F13042A553E6088A7BC59F" ma:contentTypeVersion="7" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="961195dbc29861604f76387628a31b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e80ba56-bc51-4b21-83ac-278271136897" xmlns:ns4="34f8a2d3-0492-4be5-9764-b37877207550" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a330861d48bda8331e219aab25892a61" ns3:_="" ns4:_="">
     <xsd:import namespace="6e80ba56-bc51-4b21-83ac-278271136897"/>
@@ -1052,32 +1037,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7102BD0-FCB2-4850-9D66-E617DD2167B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6e80ba56-bc51-4b21-83ac-278271136897"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="34f8a2d3-0492-4be5-9764-b37877207550"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B8ED2DF-8797-4D87-B9C3-2E3BFC92931A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75586475-FA3C-46D8-9FC5-A7B28B651FB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1094,4 +1069,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B8ED2DF-8797-4D87-B9C3-2E3BFC92931A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7102BD0-FCB2-4850-9D66-E617DD2167B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6e80ba56-bc51-4b21-83ac-278271136897"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="34f8a2d3-0492-4be5-9764-b37877207550"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>